--- a/data_suhu/september/25-09-23-Lokasi2 (data semi rapih).xlsx
+++ b/data_suhu/september/25-09-23-Lokasi2 (data semi rapih).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josev\Downloads\magang_res_cloned\data_suhu\september\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B058FCA-E02E-41E0-B593-9ED2AA3FB37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED1581D-D57B-4A0B-92DF-13A233F8DF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B56DACF4-C4E7-41AB-9AD1-37DA836393D6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>created_at</t>
   </si>
@@ -42,205 +42,163 @@
     <t>field3</t>
   </si>
   <si>
-    <t>2023-09-19T08:59:57Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T09:04:48Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T09:09:56Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T09:14:54Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T09:19:55Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T09:24:26Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T09:29:55Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T09:34:52Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T09:39:58Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T09:44:58Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T09:49:57Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T09:54:57Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T09:59:55Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T10:04:57Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T10:09:56Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T10:14:56Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T10:19:56Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T10:24:56Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T10:29:54Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T10:34:54Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T10:39:57Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T10:44:57Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T10:49:56Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T10:54:54Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T10:59:54Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T11:04:59Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T11:09:57Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T11:14:56Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T11:19:55Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T11:24:55Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T11:29:56Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T11:34:56Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T11:39:57Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T11:44:56Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T11:49:59Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T11:54:59Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T11:59:57Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T12:04:57Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T12:09:51Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T12:14:55Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T12:19:58Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T12:24:59Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T12:29:55Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T12:34:54Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T12:39:54Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T12:44:59Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T12:49:46Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T12:54:50Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T12:59:54Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T13:04:58Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T13:09:51Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T13:14:45Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T13:19:55Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T13:24:54Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T13:29:43Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T13:34:53Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T13:39:54Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T13:44:57Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T13:49:50Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T13:54:56Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T13:59:58Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T14:04:58Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T14:09:57Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T14:14:45Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T14:19:55Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T14:24:54Z</t>
-  </si>
-  <si>
-    <t>2023-09-19T14:29:54Z</t>
+    <t>2023-09-25T10:39:55Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T10:44:57Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T10:49:58Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T10:54:58Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T10:59:58Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T11:04:56Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T11:09:53Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T11:14:54Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T11:19:59Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T11:24:56Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T11:29:57Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T11:34:57Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T11:39:55Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T11:44:54Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T11:49:55Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T11:54:53Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T11:59:58Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T12:04:56Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T12:09:56Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T12:14:56Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T12:19:55Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T12:24:55Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T12:29:55Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T12:34:55Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T12:39:58Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T12:44:52Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T12:49:57Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T12:54:56Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T12:59:55Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T13:04:48Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T13:09:59Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T13:14:58Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T13:19:56Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T13:24:55Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T13:28:34Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T13:34:56Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T13:39:55Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T13:44:54Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T13:49:49Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T13:54:55Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T13:59:59Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T14:04:53Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T14:09:58Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T14:14:59Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T14:19:59Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T14:24:53Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T14:29:55Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T14:34:54Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T14:39:59Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T14:44:58Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T14:49:57Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T14:54:56Z</t>
+  </si>
+  <si>
+    <t>2023-09-25T14:59:56Z</t>
   </si>
 </sst>
 </file>
@@ -630,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF714EC-14B9-4D74-BDCF-754D8409DB8C}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,16 +623,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="5">
-        <v>194213</v>
+        <v>257895</v>
       </c>
       <c r="D2" s="5">
-        <v>27.98</v>
+        <v>27.28</v>
       </c>
       <c r="E2" s="5">
-        <v>48.19</v>
+        <v>49.9</v>
       </c>
       <c r="F2" s="5">
-        <v>1005.93</v>
+        <v>1006.17</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -688,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="5">
-        <v>194249</v>
+        <v>257943</v>
       </c>
       <c r="D3" s="5">
-        <v>28.09</v>
+        <v>27.29</v>
       </c>
       <c r="E3" s="5">
-        <v>47.81</v>
+        <v>49.89</v>
       </c>
       <c r="F3" s="5">
-        <v>1006</v>
+        <v>1006.17</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -706,16 +664,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="5">
-        <v>194281</v>
+        <v>257993</v>
       </c>
       <c r="D4" s="5">
-        <v>28.18</v>
+        <v>27.31</v>
       </c>
       <c r="E4" s="5">
-        <v>47.63</v>
+        <v>49.82</v>
       </c>
       <c r="F4" s="5">
-        <v>1006.07</v>
+        <v>1006.28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -724,16 +682,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="5">
-        <v>194308</v>
+        <v>258035</v>
       </c>
       <c r="D5" s="5">
-        <v>28.23</v>
+        <v>27.33</v>
       </c>
       <c r="E5" s="5">
-        <v>47.6</v>
+        <v>49.73</v>
       </c>
       <c r="F5" s="5">
-        <v>1006.12</v>
+        <v>1006.34</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -742,16 +700,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="5">
-        <v>194343</v>
+        <v>258077</v>
       </c>
       <c r="D6" s="5">
-        <v>28.21</v>
+        <v>27.37</v>
       </c>
       <c r="E6" s="5">
-        <v>47.48</v>
+        <v>49.7</v>
       </c>
       <c r="F6" s="5">
-        <v>1006.18</v>
+        <v>1006.4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -760,16 +718,16 @@
         <v>10</v>
       </c>
       <c r="C7" s="5">
-        <v>194375</v>
+        <v>258112</v>
       </c>
       <c r="D7" s="5">
-        <v>28.17</v>
+        <v>27.41</v>
       </c>
       <c r="E7" s="5">
-        <v>47.43</v>
+        <v>49.64</v>
       </c>
       <c r="F7" s="5">
-        <v>1006.18</v>
+        <v>1006.56</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -778,16 +736,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="5">
-        <v>194412</v>
+        <v>258153</v>
       </c>
       <c r="D8" s="5">
-        <v>28.13</v>
+        <v>27.44</v>
       </c>
       <c r="E8" s="5">
-        <v>47.43</v>
+        <v>49.53</v>
       </c>
       <c r="F8" s="5">
-        <v>1006.23</v>
+        <v>1006.65</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -796,16 +754,16 @@
         <v>12</v>
       </c>
       <c r="C9" s="5">
-        <v>194443</v>
+        <v>258194</v>
       </c>
       <c r="D9" s="5">
-        <v>28.08</v>
+        <v>27.48</v>
       </c>
       <c r="E9" s="5">
-        <v>47.66</v>
+        <v>49.52</v>
       </c>
       <c r="F9" s="5">
-        <v>1006.29</v>
+        <v>1006.75</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -814,16 +772,16 @@
         <v>13</v>
       </c>
       <c r="C10" s="5">
-        <v>194486</v>
+        <v>258236</v>
       </c>
       <c r="D10" s="5">
-        <v>28.04</v>
+        <v>27.5</v>
       </c>
       <c r="E10" s="5">
-        <v>47.51</v>
+        <v>49.46</v>
       </c>
       <c r="F10" s="5">
-        <v>1006.33</v>
+        <v>1006.8</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -832,16 +790,16 @@
         <v>14</v>
       </c>
       <c r="C11" s="5">
-        <v>194527</v>
+        <v>258276</v>
       </c>
       <c r="D11" s="5">
-        <v>27.97</v>
+        <v>27.55</v>
       </c>
       <c r="E11" s="5">
-        <v>47.63</v>
+        <v>49.45</v>
       </c>
       <c r="F11" s="5">
-        <v>1006.43</v>
+        <v>1006.86</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -850,16 +808,16 @@
         <v>15</v>
       </c>
       <c r="C12" s="5">
-        <v>194564</v>
+        <v>258316</v>
       </c>
       <c r="D12" s="5">
-        <v>27.91</v>
+        <v>27.6</v>
       </c>
       <c r="E12" s="5">
-        <v>47.69</v>
+        <v>49.37</v>
       </c>
       <c r="F12" s="5">
-        <v>1006.49</v>
+        <v>1006.95</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -868,16 +826,16 @@
         <v>16</v>
       </c>
       <c r="C13" s="5">
-        <v>194606</v>
+        <v>258360</v>
       </c>
       <c r="D13" s="5">
-        <v>27.94</v>
+        <v>27.65</v>
       </c>
       <c r="E13" s="5">
-        <v>47.71</v>
+        <v>49.27</v>
       </c>
       <c r="F13" s="5">
-        <v>1006.57</v>
+        <v>1007.03</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -886,16 +844,16 @@
         <v>17</v>
       </c>
       <c r="C14" s="5">
-        <v>194648</v>
+        <v>258390</v>
       </c>
       <c r="D14" s="5">
-        <v>28.01</v>
+        <v>27.73</v>
       </c>
       <c r="E14" s="5">
-        <v>47.6</v>
+        <v>49.22</v>
       </c>
       <c r="F14" s="5">
-        <v>1006.66</v>
+        <v>1007.14</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -904,16 +862,16 @@
         <v>18</v>
       </c>
       <c r="C15" s="5">
-        <v>194689</v>
+        <v>258435</v>
       </c>
       <c r="D15" s="5">
-        <v>28.09</v>
+        <v>27.81</v>
       </c>
       <c r="E15" s="5">
-        <v>47.46</v>
+        <v>49.06</v>
       </c>
       <c r="F15" s="5">
-        <v>1006.66</v>
+        <v>1007.22</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -922,16 +880,16 @@
         <v>19</v>
       </c>
       <c r="C16" s="5">
-        <v>194727</v>
+        <v>258484</v>
       </c>
       <c r="D16" s="5">
-        <v>28.13</v>
+        <v>27.86</v>
       </c>
       <c r="E16" s="5">
-        <v>47.32</v>
+        <v>48.95</v>
       </c>
       <c r="F16" s="5">
-        <v>1006.71</v>
+        <v>1007.31</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -940,16 +898,16 @@
         <v>20</v>
       </c>
       <c r="C17" s="5">
-        <v>194774</v>
+        <v>258524</v>
       </c>
       <c r="D17" s="5">
-        <v>28.07</v>
+        <v>27.91</v>
       </c>
       <c r="E17" s="5">
-        <v>47.32</v>
+        <v>48.86</v>
       </c>
       <c r="F17" s="5">
-        <v>1006.72</v>
+        <v>1007.38</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -958,16 +916,16 @@
         <v>21</v>
       </c>
       <c r="C18" s="5">
-        <v>194815</v>
+        <v>258559</v>
       </c>
       <c r="D18" s="5">
-        <v>27.99</v>
+        <v>27.94</v>
       </c>
       <c r="E18" s="5">
-        <v>47.52</v>
+        <v>48.74</v>
       </c>
       <c r="F18" s="5">
-        <v>1006.78</v>
+        <v>1007.52</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -976,16 +934,16 @@
         <v>22</v>
       </c>
       <c r="C19" s="5">
-        <v>194859</v>
+        <v>258590</v>
       </c>
       <c r="D19" s="5">
-        <v>28.02</v>
+        <v>27.93</v>
       </c>
       <c r="E19" s="5">
-        <v>47.56</v>
+        <v>48.77</v>
       </c>
       <c r="F19" s="5">
-        <v>1006.8</v>
+        <v>1007.63</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -994,16 +952,16 @@
         <v>23</v>
       </c>
       <c r="C20" s="5">
-        <v>194897</v>
+        <v>258633</v>
       </c>
       <c r="D20" s="5">
-        <v>28.08</v>
+        <v>27.89</v>
       </c>
       <c r="E20" s="5">
-        <v>47.47</v>
+        <v>48.82</v>
       </c>
       <c r="F20" s="5">
-        <v>1006.9</v>
+        <v>1007.67</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1012,16 +970,16 @@
         <v>24</v>
       </c>
       <c r="C21" s="5">
-        <v>194941</v>
+        <v>258678</v>
       </c>
       <c r="D21" s="5">
-        <v>28.13</v>
+        <v>27.85</v>
       </c>
       <c r="E21" s="5">
-        <v>47.36</v>
+        <v>48.89</v>
       </c>
       <c r="F21" s="5">
-        <v>1007.03</v>
+        <v>1007.72</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1030,16 +988,16 @@
         <v>25</v>
       </c>
       <c r="C22" s="5">
-        <v>194981</v>
+        <v>258725</v>
       </c>
       <c r="D22" s="5">
-        <v>28.07</v>
+        <v>27.83</v>
       </c>
       <c r="E22" s="5">
-        <v>47.36</v>
+        <v>48.94</v>
       </c>
       <c r="F22" s="5">
-        <v>1007.1</v>
+        <v>1007.87</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1048,16 +1006,16 @@
         <v>26</v>
       </c>
       <c r="C23" s="5">
-        <v>195026</v>
+        <v>258771</v>
       </c>
       <c r="D23" s="5">
-        <v>27.98</v>
+        <v>27.81</v>
       </c>
       <c r="E23" s="5">
-        <v>47.55</v>
+        <v>49.02</v>
       </c>
       <c r="F23" s="5">
-        <v>1007.18</v>
+        <v>1007.97</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1066,16 +1024,16 @@
         <v>27</v>
       </c>
       <c r="C24" s="5">
-        <v>195064</v>
+        <v>258809</v>
       </c>
       <c r="D24" s="5">
-        <v>27.88</v>
+        <v>27.81</v>
       </c>
       <c r="E24" s="5">
-        <v>47.76</v>
+        <v>49.07</v>
       </c>
       <c r="F24" s="5">
-        <v>1007.24</v>
+        <v>1008.1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1084,16 +1042,16 @@
         <v>28</v>
       </c>
       <c r="C25" s="5">
-        <v>195103</v>
+        <v>258851</v>
       </c>
       <c r="D25" s="5">
-        <v>27.82</v>
+        <v>27.86</v>
       </c>
       <c r="E25" s="5">
-        <v>47.92</v>
+        <v>49.07</v>
       </c>
       <c r="F25" s="5">
-        <v>1007.29</v>
+        <v>1008.16</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1102,16 +1060,16 @@
         <v>29</v>
       </c>
       <c r="C26" s="5">
-        <v>195147</v>
+        <v>258888</v>
       </c>
       <c r="D26" s="5">
-        <v>27.77</v>
+        <v>27.92</v>
       </c>
       <c r="E26" s="5">
-        <v>48.08</v>
+        <v>48.98</v>
       </c>
       <c r="F26" s="5">
-        <v>1007.41</v>
+        <v>1008.2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1120,16 +1078,16 @@
         <v>30</v>
       </c>
       <c r="C27" s="5">
-        <v>195193</v>
+        <v>258930</v>
       </c>
       <c r="D27" s="5">
-        <v>27.73</v>
+        <v>28.01</v>
       </c>
       <c r="E27" s="5">
-        <v>48.23</v>
+        <v>48.87</v>
       </c>
       <c r="F27" s="5">
-        <v>1007.45</v>
+        <v>1008.27</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1138,16 +1096,16 @@
         <v>31</v>
       </c>
       <c r="C28" s="5">
-        <v>195238</v>
+        <v>258976</v>
       </c>
       <c r="D28" s="5">
-        <v>27.7</v>
+        <v>28.1</v>
       </c>
       <c r="E28" s="5">
-        <v>48.37</v>
+        <v>48.68</v>
       </c>
       <c r="F28" s="5">
-        <v>1007.47</v>
+        <v>1008.22</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1156,16 +1114,16 @@
         <v>32</v>
       </c>
       <c r="C29" s="5">
-        <v>195285</v>
+        <v>259019</v>
       </c>
       <c r="D29" s="5">
-        <v>27.68</v>
+        <v>28.14</v>
       </c>
       <c r="E29" s="5">
-        <v>48.45</v>
+        <v>48.57</v>
       </c>
       <c r="F29" s="5">
-        <v>1007.55</v>
+        <v>1008.22</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1174,16 +1132,16 @@
         <v>33</v>
       </c>
       <c r="C30" s="5">
-        <v>195326</v>
+        <v>259061</v>
       </c>
       <c r="D30" s="5">
-        <v>27.68</v>
+        <v>28.12</v>
       </c>
       <c r="E30" s="5">
         <v>48.55</v>
       </c>
       <c r="F30" s="5">
-        <v>1007.66</v>
+        <v>1008.25</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1192,16 +1150,16 @@
         <v>34</v>
       </c>
       <c r="C31" s="5">
-        <v>195373</v>
+        <v>259100</v>
       </c>
       <c r="D31" s="5">
-        <v>27.68</v>
+        <v>28.07</v>
       </c>
       <c r="E31" s="5">
-        <v>48.61</v>
+        <v>48.62</v>
       </c>
       <c r="F31" s="5">
-        <v>1007.77</v>
+        <v>1008.26</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1210,16 +1168,16 @@
         <v>35</v>
       </c>
       <c r="C32" s="5">
-        <v>195418</v>
+        <v>259146</v>
       </c>
       <c r="D32" s="5">
-        <v>27.68</v>
+        <v>28.01</v>
       </c>
       <c r="E32" s="5">
-        <v>48.66</v>
+        <v>48.77</v>
       </c>
       <c r="F32" s="5">
-        <v>1007.87</v>
+        <v>1008.23</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1228,16 +1186,16 @@
         <v>36</v>
       </c>
       <c r="C33" s="5">
-        <v>195464</v>
+        <v>259191</v>
       </c>
       <c r="D33" s="5">
-        <v>27.68</v>
+        <v>27.97</v>
       </c>
       <c r="E33" s="5">
-        <v>48.7</v>
+        <v>48.88</v>
       </c>
       <c r="F33" s="5">
-        <v>1007.95</v>
+        <v>1008.34</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1246,16 +1204,16 @@
         <v>37</v>
       </c>
       <c r="C34" s="5">
-        <v>195507</v>
+        <v>259231</v>
       </c>
       <c r="D34" s="5">
-        <v>27.67</v>
+        <v>27.95</v>
       </c>
       <c r="E34" s="5">
-        <v>48.74</v>
+        <v>48.98</v>
       </c>
       <c r="F34" s="5">
-        <v>1007.98</v>
+        <v>1008.22</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1263,16 +1221,16 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>195553</v>
+        <v>259278</v>
       </c>
       <c r="D35">
-        <v>27.68</v>
+        <v>27.93</v>
       </c>
       <c r="E35">
-        <v>48.75</v>
+        <v>49.05</v>
       </c>
       <c r="F35">
-        <v>1008.02</v>
+        <v>1008.17</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1280,16 +1238,16 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>195598</v>
+        <v>259310</v>
       </c>
       <c r="D36">
-        <v>27.68</v>
+        <v>27.93</v>
       </c>
       <c r="E36">
-        <v>48.82</v>
+        <v>49.08</v>
       </c>
       <c r="F36">
-        <v>1008.09</v>
+        <v>1008.26</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,16 +1255,16 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>195644</v>
+        <v>259326</v>
       </c>
       <c r="D37">
-        <v>27.68</v>
+        <v>27.96</v>
       </c>
       <c r="E37">
-        <v>48.87</v>
+        <v>49.17</v>
       </c>
       <c r="F37">
-        <v>1008.21</v>
+        <v>1008.25</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1314,16 +1272,16 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>195684</v>
+        <v>259373</v>
       </c>
       <c r="D38">
-        <v>27.69</v>
+        <v>28.07</v>
       </c>
       <c r="E38">
-        <v>48.93</v>
+        <v>49.05</v>
       </c>
       <c r="F38">
-        <v>1008.3</v>
+        <v>1008.23</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,16 +1289,16 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>195727</v>
+        <v>259420</v>
       </c>
       <c r="D39">
-        <v>27.7</v>
+        <v>28.19</v>
       </c>
       <c r="E39">
-        <v>48.96</v>
+        <v>48.82</v>
       </c>
       <c r="F39">
-        <v>1008.39</v>
+        <v>1008.25</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1348,16 +1306,16 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>195771</v>
+        <v>259468</v>
       </c>
       <c r="D40">
-        <v>27.7</v>
+        <v>28.29</v>
       </c>
       <c r="E40">
-        <v>49.19</v>
+        <v>48.63</v>
       </c>
       <c r="F40">
-        <v>1008.42</v>
+        <v>1008.34</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1365,16 +1323,16 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>195805</v>
+        <v>259517</v>
       </c>
       <c r="D41">
-        <v>27.7</v>
+        <v>28.29</v>
       </c>
       <c r="E41">
-        <v>49.26</v>
+        <v>48.52</v>
       </c>
       <c r="F41">
-        <v>1008.48</v>
+        <v>1008.35</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1382,16 +1340,16 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>195845</v>
+        <v>259562</v>
       </c>
       <c r="D42">
-        <v>27.71</v>
+        <v>28.23</v>
       </c>
       <c r="E42">
-        <v>49.3</v>
+        <v>48.56</v>
       </c>
       <c r="F42">
-        <v>1008.55</v>
+        <v>1008.31</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1399,16 +1357,16 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>195887</v>
+        <v>259609</v>
       </c>
       <c r="D43">
-        <v>27.71</v>
+        <v>28.18</v>
       </c>
       <c r="E43">
-        <v>49.37</v>
+        <v>48.7</v>
       </c>
       <c r="F43">
-        <v>1008.68</v>
+        <v>1008.37</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1416,16 +1374,16 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>195928</v>
+        <v>259655</v>
       </c>
       <c r="D44">
-        <v>27.71</v>
+        <v>28.13</v>
       </c>
       <c r="E44">
-        <v>49.66</v>
+        <v>48.81</v>
       </c>
       <c r="F44">
-        <v>1008.77</v>
+        <v>1008.4</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1433,16 +1391,16 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>195962</v>
+        <v>259693</v>
       </c>
       <c r="D45">
-        <v>27.72</v>
+        <v>28.09</v>
       </c>
       <c r="E45">
-        <v>49.64</v>
+        <v>48.9</v>
       </c>
       <c r="F45">
-        <v>1008.8</v>
+        <v>1008.41</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1450,16 +1408,16 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>196009</v>
+        <v>259738</v>
       </c>
       <c r="D46">
-        <v>27.72</v>
+        <v>28.06</v>
       </c>
       <c r="E46">
-        <v>49.74</v>
+        <v>48.99</v>
       </c>
       <c r="F46">
-        <v>1008.88</v>
+        <v>1008.47</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1467,16 +1425,16 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>196047</v>
+        <v>259778</v>
       </c>
       <c r="D47">
-        <v>27.73</v>
+        <v>28.05</v>
       </c>
       <c r="E47">
-        <v>49.74</v>
+        <v>49.04</v>
       </c>
       <c r="F47">
-        <v>1008.93</v>
+        <v>1008.5</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1484,16 +1442,16 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>196082</v>
+        <v>259816</v>
       </c>
       <c r="D48">
-        <v>27.73</v>
+        <v>28.04</v>
       </c>
       <c r="E48">
-        <v>49.76</v>
+        <v>49.12</v>
       </c>
       <c r="F48">
-        <v>1009</v>
+        <v>1008.54</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -1501,16 +1459,16 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>196123</v>
+        <v>259862</v>
       </c>
       <c r="D49">
-        <v>27.74</v>
+        <v>28.04</v>
       </c>
       <c r="E49">
-        <v>49.94</v>
+        <v>49.15</v>
       </c>
       <c r="F49">
-        <v>1009.01</v>
+        <v>1008.52</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -1518,16 +1476,16 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>196166</v>
+        <v>259906</v>
       </c>
       <c r="D50">
-        <v>27.73</v>
+        <v>28.04</v>
       </c>
       <c r="E50">
-        <v>49.93</v>
+        <v>49.19</v>
       </c>
       <c r="F50">
-        <v>1009.06</v>
+        <v>1008.58</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -1535,16 +1493,16 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>196207</v>
+        <v>259951</v>
       </c>
       <c r="D51">
-        <v>27.74</v>
+        <v>28.03</v>
       </c>
       <c r="E51">
-        <v>49.93</v>
+        <v>49.21</v>
       </c>
       <c r="F51">
-        <v>1009.1</v>
+        <v>1008.57</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -1552,16 +1510,16 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>196243</v>
+        <v>259993</v>
       </c>
       <c r="D52">
-        <v>27.75</v>
+        <v>28.03</v>
       </c>
       <c r="E52">
-        <v>49.96</v>
+        <v>49.23</v>
       </c>
       <c r="F52">
-        <v>1009.11</v>
+        <v>1008.59</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -1569,16 +1527,16 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>196281</v>
+        <v>260039</v>
       </c>
       <c r="D53">
-        <v>27.75</v>
+        <v>28.04</v>
       </c>
       <c r="E53">
-        <v>50.01</v>
+        <v>49.26</v>
       </c>
       <c r="F53">
-        <v>1009.13</v>
+        <v>1008.56</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -1586,254 +1544,16 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>196317</v>
+        <v>260085</v>
       </c>
       <c r="D54">
-        <v>27.75</v>
+        <v>28.05</v>
       </c>
       <c r="E54">
-        <v>50.05</v>
+        <v>49.29</v>
       </c>
       <c r="F54">
-        <v>1009.17</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55">
-        <v>196355</v>
-      </c>
-      <c r="D55">
-        <v>27.75</v>
-      </c>
-      <c r="E55">
-        <v>50.01</v>
-      </c>
-      <c r="F55">
-        <v>1009.21</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56">
-        <v>196390</v>
-      </c>
-      <c r="D56">
-        <v>27.76</v>
-      </c>
-      <c r="E56">
-        <v>50.02</v>
-      </c>
-      <c r="F56">
-        <v>1009.24</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57">
-        <v>196429</v>
-      </c>
-      <c r="D57">
-        <v>27.77</v>
-      </c>
-      <c r="E57">
-        <v>50.11</v>
-      </c>
-      <c r="F57">
-        <v>1009.24</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58">
-        <v>196470</v>
-      </c>
-      <c r="D58">
-        <v>27.77</v>
-      </c>
-      <c r="E58">
-        <v>50.15</v>
-      </c>
-      <c r="F58">
-        <v>1009.25</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59">
-        <v>196511</v>
-      </c>
-      <c r="D59">
-        <v>27.78</v>
-      </c>
-      <c r="E59">
-        <v>50.12</v>
-      </c>
-      <c r="F59">
-        <v>1009.33</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60">
-        <v>196549</v>
-      </c>
-      <c r="D60">
-        <v>27.78</v>
-      </c>
-      <c r="E60">
-        <v>50.15</v>
-      </c>
-      <c r="F60">
-        <v>1009.32</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61">
-        <v>196591</v>
-      </c>
-      <c r="D61">
-        <v>27.79</v>
-      </c>
-      <c r="E61">
-        <v>50.04</v>
-      </c>
-      <c r="F61">
-        <v>1009.42</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62">
-        <v>196635</v>
-      </c>
-      <c r="D62">
-        <v>27.79</v>
-      </c>
-      <c r="E62">
-        <v>50.12</v>
-      </c>
-      <c r="F62">
-        <v>1009.42</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63">
-        <v>196681</v>
-      </c>
-      <c r="D63">
-        <v>27.79</v>
-      </c>
-      <c r="E63">
-        <v>50.23</v>
-      </c>
-      <c r="F63">
-        <v>1009.47</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64">
-        <v>196722</v>
-      </c>
-      <c r="D64">
-        <v>27.8</v>
-      </c>
-      <c r="E64">
-        <v>50.18</v>
-      </c>
-      <c r="F64">
-        <v>1009.43</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65">
-        <v>196764</v>
-      </c>
-      <c r="D65">
-        <v>27.81</v>
-      </c>
-      <c r="E65">
-        <v>50.17</v>
-      </c>
-      <c r="F65">
-        <v>1009.46</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66">
-        <v>196803</v>
-      </c>
-      <c r="D66">
-        <v>27.86</v>
-      </c>
-      <c r="E66">
-        <v>50.23</v>
-      </c>
-      <c r="F66">
-        <v>1009.5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67">
-        <v>196852</v>
-      </c>
-      <c r="D67">
-        <v>28.01</v>
-      </c>
-      <c r="E67">
-        <v>50.07</v>
-      </c>
-      <c r="F67">
-        <v>1009.55</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>71</v>
-      </c>
-      <c r="C68">
-        <v>196896</v>
-      </c>
-      <c r="D68">
-        <v>28.14</v>
-      </c>
-      <c r="E68">
-        <v>49.75</v>
-      </c>
-      <c r="F68">
-        <v>1009.51</v>
+        <v>1008.59</v>
       </c>
     </row>
   </sheetData>
